--- a/COVID NFLStats/LB/LB_aggregate.xlsx
+++ b/COVID NFLStats/LB/LB_aggregate.xlsx
@@ -495,55 +495,55 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Chris Board</t>
+          <t>Brian Burns</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2019-2021</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.3333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>27.33333333333333</v>
+        <v>44.33333333333334</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.66666666666667</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>12.66666666666667</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Chris Board</t>
+          <t>Brian Burns</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2022-2024</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>20.33333333333333</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.333333333333333</v>
+        <v>25.33333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Chris Board</t>
+          <t>Brian Burns</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-7</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6666666666666661</v>
+        <v>7.666666666666668</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-6.333333333333333</v>
+        <v>9.333333333333332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Brian Burns</t>
+          <t>Bud Dupree</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>2.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>44.33333333333334</v>
+        <v>38.66666666666666</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>28.33333333333333</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>16</v>
+        <v>10.33333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Brian Burns</t>
+          <t>Bud Dupree</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>4.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>61.33333333333334</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>36</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>25.33333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Brian Burns</t>
+          <t>Bud Dupree</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17</v>
+        <v>-10.33333333333333</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>7.666666666666668</v>
+        <v>-12</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>9.333333333333332</v>
+        <v>1.666666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Frankie Luvu</t>
+          <t>Chris Board</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>26.66666666666667</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>17.66666666666667</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9</v>
+        <v>12.66666666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Frankie Luvu</t>
+          <t>Chris Board</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>111.6666666666667</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>65.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>46.33333333333334</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Frankie Luvu</t>
+          <t>Chris Board</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>4.666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>85</v>
+        <v>-7</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>47.66666666666666</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>37.33333333333334</v>
+        <v>-6.333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Haason Reddick</t>
+          <t>Christian Rozeboom</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>3.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>69</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>41</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Haason Reddick</t>
+          <t>Christian Rozeboom</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>33.66666666666666</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>24.33333333333333</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>9.333333333333334</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Haason Reddick</t>
+          <t>Christian Rozeboom</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-1.666666666666667</v>
+        <v>-2</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-35.33333333333334</v>
+        <v>-50</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-16.66666666666667</v>
+        <v>-31.33333333333333</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>-18.66666666666666</v>
@@ -783,7 +783,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Eric Wilson</t>
+          <t>De'Vondre Campbell</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>2.888888888888889</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>71.55555555555556</v>
+        <v>124.6666666666667</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>37.11111111111111</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>34.44444444444444</v>
+        <v>42.66666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Eric Wilson</t>
+          <t>De'Vondre Campbell</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>40</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>21</v>
+        <v>48.66666666666666</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>19</v>
+        <v>34.66666666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Eric Wilson</t>
+          <t>De'Vondre Campbell</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-2.222222222222222</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-31.55555555555556</v>
+        <v>-41.33333333333334</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-16.11111111111111</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-15.44444444444444</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Jadeveon Clowney</t>
+          <t>Demario Davis</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>29</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>19.66666666666667</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>9.333333333333334</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Jadeveon Clowney</t>
+          <t>Demario Davis</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>4</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>20.66666666666667</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>18.33333333333333</v>
+        <v>56.33333333333334</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Jadeveon Clowney</t>
+          <t>Demario Davis</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -912,22 +912,22 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>10</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>8.999999999999998</v>
+        <v>21.33333333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Jihad Ward</t>
+          <t>Denzel Perryman</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>17.55555555555556</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6.333333333333333</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>11.22222222222222</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Jihad Ward</t>
+          <t>Denzel Perryman</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -963,19 +963,19 @@
         <v>1.666666666666667</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>25.66666666666667</v>
+        <v>71.33333333333333</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>16.33333333333333</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.333333333333334</v>
+        <v>25.33333333333333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Jihad Ward</t>
+          <t>Denzel Perryman</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.7777777777777779</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8.111111111111111</v>
+        <v>-18.66666666666667</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>10</v>
+        <v>-13</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1.888888888888888</v>
+        <v>-5.666666666666668</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Kamu Grugier-Hill</t>
+          <t>Duke Riley</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1008,22 +1008,22 @@
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>53</v>
+        <v>30.11111111111111</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>36.33333333333334</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>16.66666666666667</v>
+        <v>12.44444444444444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Kamu Grugier-Hill</t>
+          <t>Duke Riley</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1032,22 +1032,22 @@
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>1.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>35.33333333333334</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>22.44444444444444</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>12.88888888888889</v>
+        <v>12.66666666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Kamu Grugier-Hill</t>
+          <t>Duke Riley</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.8888888888888886</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-17.66666666666666</v>
+        <v>2.555555555555554</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-13.88888888888889</v>
+        <v>2.333333333333332</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-3.777777777777777</v>
+        <v>0.2222222222222232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Mack Wilson</t>
+          <t>Eric Kendricks</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1080,22 +1080,22 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>3</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>54.33333333333334</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>35.66666666666666</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>18.66666666666667</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Mack Wilson</t>
+          <t>Eric Kendricks</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1104,22 +1104,22 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>49.33333333333334</v>
+        <v>130.6666666666667</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>27.66666666666667</v>
+        <v>79</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>21.66666666666667</v>
+        <v>51.66666666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Mack Wilson</t>
+          <t>Eric Kendricks</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1128,22 +1128,22 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>-2.333333333333333</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-5</v>
+        <v>10.66666666666666</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-7.999999999999996</v>
+        <v>5.666666666666671</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Oren Burks</t>
+          <t>Eric Wilson</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>22.66666666666667</v>
+        <v>71.55555555555556</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>15</v>
+        <v>37.11111111111111</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>7.666666666666667</v>
+        <v>34.44444444444444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Oren Burks</t>
+          <t>Eric Wilson</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
@@ -1176,22 +1176,22 @@
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>41.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>21.33333333333333</v>
+        <v>21</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>20.33333333333333</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Oren Burks</t>
+          <t>Eric Wilson</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -1200,22 +1200,22 @@
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>1</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>19</v>
+        <v>-31.55555555555556</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>6.333333333333332</v>
+        <v>-16.11111111111111</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>12.66666666666666</v>
+        <v>-15.44444444444444</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Christian Rozeboom</t>
+          <t>Frankie Luvu</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1224,22 +1224,22 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>2.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>76.66666666666667</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45.66666666666666</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Christian Rozeboom</t>
+          <t>Frankie Luvu</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>26.66666666666667</v>
+        <v>111.6666666666667</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>14.33333333333333</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>12.33333333333333</v>
+        <v>46.33333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Christian Rozeboom</t>
+          <t>Frankie Luvu</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-2</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-50</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-31.33333333333333</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-18.66666666666666</v>
+        <v>37.33333333333334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Duke Riley</t>
+          <t>Haason Reddick</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
@@ -1296,22 +1296,22 @@
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>0.3333333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>30.11111111111111</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>17.66666666666667</v>
+        <v>41</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>12.44444444444444</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Duke Riley</t>
+          <t>Haason Reddick</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>32.66666666666666</v>
+        <v>33.66666666666666</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>20</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>12.66666666666667</v>
+        <v>9.333333333333334</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Duke Riley</t>
+          <t>Haason Reddick</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.6666666666666667</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>2.555555555555554</v>
+        <v>-35.33333333333334</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>2.333333333333332</v>
+        <v>-16.66666666666667</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0.2222222222222232</v>
+        <v>-18.66666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Troy Reeder</t>
+          <t>Jadeveon Clowney</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1368,22 +1368,22 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>76.66666666666667</v>
+        <v>29</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45.66666666666666</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>31</v>
+        <v>9.333333333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Troy Reeder</t>
+          <t>Jadeveon Clowney</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1392,22 +1392,22 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>26.66666666666667</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>14.33333333333333</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>12.33333333333333</v>
+        <v>18.33333333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Troy Reeder</t>
+          <t>Jadeveon Clowney</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1416,22 +1416,22 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-50</v>
+        <v>10</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-31.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-18.66666666666666</v>
+        <v>8.999999999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>De'Vondre Campbell</t>
+          <t>jalenreeves-maybin</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>4.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>124.6666666666667</v>
+        <v>43</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>42.66666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>De'Vondre Campbell</t>
+          <t>jalenreeves-maybin</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -1464,22 +1464,22 @@
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>83.33333333333333</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>48.66666666666666</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>34.66666666666666</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>De'Vondre Campbell</t>
+          <t>jalenreeves-maybin</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>-2.333333333333333</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>-41.33333333333334</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>-33.33333333333334</v>
+        <v>-19.33333333333334</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>-8</v>
+        <v>-7.333333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Demario Davis</t>
+          <t>Jihad Ward</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>111.6666666666667</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>76.66666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>35</v>
+        <v>11.22222222222222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Demario Davis</t>
+          <t>Jihad Ward</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1536,22 +1536,22 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>5.666666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>122</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>65.66666666666667</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>56.33333333333334</v>
+        <v>9.333333333333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>Demario Davis</t>
+          <t>Jihad Ward</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1560,22 +1560,22 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-2.333333333333333</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>10.33333333333333</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>-11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>21.33333333333334</v>
+        <v>-1.888888888888888</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Denzel Perryman</t>
+          <t>Kamu Grugier-Hill</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
@@ -1584,22 +1584,22 @@
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>59</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>31</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Denzel Perryman</t>
+          <t>Kamu Grugier-Hill</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
@@ -1608,22 +1608,22 @@
         </is>
       </c>
       <c r="C48" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>71.33333333333333</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>46</v>
+        <v>22.44444444444444</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>25.33333333333333</v>
+        <v>12.88888888888889</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Denzel Perryman</t>
+          <t>Kamu Grugier-Hill</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -1632,22 +1632,22 @@
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>0</v>
+        <v>0.8888888888888886</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>-18.66666666666667</v>
+        <v>-17.66666666666666</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>-13</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>-5.666666666666668</v>
+        <v>-3.777777777777777</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Eric Kendricks</t>
+          <t>Luke Rhodes</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>7.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>120</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>73.33333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Eric Kendricks</t>
+          <t>Luke Rhodes</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1680,22 +1680,22 @@
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>130.6666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>79</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>51.66666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Eric Kendricks</t>
+          <t>Luke Rhodes</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-2.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>10.66666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>5.666666666666671</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Neville Hewitt</t>
+          <t>Mack Wilson</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -1731,19 +1731,19 @@
         <v>3</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>89.66666666666667</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>57.33333333333334</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>32.33333333333334</v>
+        <v>18.66666666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Neville Hewitt</t>
+          <t>Mack Wilson</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
@@ -1752,22 +1752,22 @@
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>29</v>
+        <v>49.33333333333334</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>16.33333333333333</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>12.66666666666667</v>
+        <v>21.66666666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Neville Hewitt</t>
+          <t>Mack Wilson</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>-60.66666666666667</v>
+        <v>-5</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>-41</v>
+        <v>-7.999999999999996</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>-19.66666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Zach Cunningham</t>
+          <t>Neville Hewitt</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -1800,22 +1800,22 @@
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>122.6666666666667</v>
+        <v>89.66666666666667</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>79.66666666666667</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>43</v>
+        <v>32.33333333333334</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Zach Cunningham</t>
+          <t>Neville Hewitt</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>37.66666666666666</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>23.66666666666667</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>14</v>
+        <v>12.66666666666667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Zach Cunningham</t>
+          <t>Neville Hewitt</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -1848,22 +1848,22 @@
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-2</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-85</v>
+        <v>-60.66666666666667</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>-56</v>
+        <v>-41</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>-29</v>
+        <v>-19.66666666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Zaire Franklin</t>
+          <t>Oren Burks</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C59" s="3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>21.66666666666667</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>8.666666666666666</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Zaire Franklin</t>
+          <t>Oren Burks</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -1896,22 +1896,22 @@
         </is>
       </c>
       <c r="C60" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>173</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>100.6666666666667</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>72.33333333333333</v>
+        <v>20.33333333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Zaire Franklin</t>
+          <t>Oren Burks</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
@@ -1920,22 +1920,22 @@
         </is>
       </c>
       <c r="C61" s="3" t="n">
-        <v>5.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>151.3333333333333</v>
+        <v>19</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>87.66666666666667</v>
+        <v>6.333333333333332</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>63.66666666666666</v>
+        <v>12.66666666666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Bud Dupree</t>
+          <t>Robert Spillane</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1944,22 +1944,22 @@
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>38.66666666666666</v>
+        <v>37.33333333333334</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>28.33333333333333</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>10.33333333333333</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Bud Dupree</t>
+          <t>Robert Spillane</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -1968,22 +1968,22 @@
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>1.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>28.33333333333333</v>
+        <v>128.3333333333333</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>16.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>12</v>
+        <v>53.33333333333334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Bud Dupree</t>
+          <t>Robert Spillane</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.3333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-10.33333333333333</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>-12</v>
+        <v>49.66666666666667</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>1.666666666666666</v>
+        <v>41.33333333333334</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Robert Spillane</t>
+          <t>T.J. Watt</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
@@ -2016,22 +2016,22 @@
         </is>
       </c>
       <c r="C65" s="3" t="n">
-        <v>1.333333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>37.33333333333334</v>
+        <v>57.33333333333334</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>25.33333333333333</v>
+        <v>42</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>12</v>
+        <v>15.33333333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Robert Spillane</t>
+          <t>T.J. Watt</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
@@ -2040,22 +2040,22 @@
         </is>
       </c>
       <c r="C66" s="3" t="n">
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>128.3333333333333</v>
+        <v>56</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>75</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>53.33333333333334</v>
+        <v>17.66666666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Robert Spillane</t>
+          <t>T.J. Watt</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
@@ -2064,22 +2064,22 @@
         </is>
       </c>
       <c r="C67" s="3" t="n">
-        <v>3.666666666666667</v>
+        <v>-1.666666666666666</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>91</v>
+        <v>-1.333333333333336</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>49.66666666666667</v>
+        <v>-3.666666666666664</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>41.33333333333334</v>
+        <v>2.333333333333334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>T.J. Watt</t>
+          <t>Troy Reeder</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>7.333333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>57.33333333333334</v>
+        <v>76.66666666666667</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>42</v>
+        <v>45.66666666666666</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>15.33333333333333</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>T.J. Watt</t>
+          <t>Troy Reeder</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -2112,22 +2112,22 @@
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>5.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>56</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>38.33333333333334</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>17.66666666666667</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>T.J. Watt</t>
+          <t>Troy Reeder</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -2136,22 +2136,22 @@
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-1.666666666666666</v>
+        <v>-2</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-1.333333333333336</v>
+        <v>-50</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>-3.666666666666664</v>
+        <v>-31.33333333333333</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.333333333333334</v>
+        <v>-18.66666666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Luke Rhodes</t>
+          <t>Zach Cunningham</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C71" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>1.333333333333333</v>
+        <v>122.6666666666667</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>1.333333333333333</v>
+        <v>79.66666666666667</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Luke Rhodes</t>
+          <t>Zach Cunningham</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
@@ -2184,22 +2184,22 @@
         </is>
       </c>
       <c r="C72" s="3" t="n">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>2.666666666666667</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Luke Rhodes</t>
+          <t>Zach Cunningham</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
@@ -2208,22 +2208,22 @@
         </is>
       </c>
       <c r="C73" s="3" t="n">
-        <v>0</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>1.333333333333333</v>
+        <v>-85</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>0.3333333333333335</v>
+        <v>-56</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>1</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>jalenreeves-maybin</t>
+          <t>Zaire Franklin</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -2232,22 +2232,22 @@
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>43</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>13</v>
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>jalenreeves-maybin</t>
+          <t>Zaire Franklin</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -2256,22 +2256,22 @@
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>16.33333333333333</v>
+        <v>173</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>10.66666666666667</v>
+        <v>100.6666666666667</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>5.666666666666667</v>
+        <v>72.33333333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>jalenreeves-maybin</t>
+          <t>Zaire Franklin</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.6666666666666666</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-26.66666666666667</v>
+        <v>151.3333333333333</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>-19.33333333333334</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>-7.333333333333333</v>
+        <v>63.66666666666666</v>
       </c>
     </row>
   </sheetData>
